--- a/data/pca/factorExposure/factorExposure_2017-12-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +720,82 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.008976974447270261</v>
+        <v>0.01225689581556439</v>
       </c>
       <c r="C2">
-        <v>0.008786309599696998</v>
+        <v>0.03901425558270861</v>
       </c>
       <c r="D2">
-        <v>0.002883771110631778</v>
+        <v>-0.02874027814332566</v>
       </c>
       <c r="E2">
-        <v>0.0232465410138317</v>
+        <v>-0.0263316430200271</v>
       </c>
       <c r="F2">
-        <v>0.05855963103487467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03250767315715666</v>
+      </c>
+      <c r="G2">
+        <v>0.0133158184851274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05771590848235642</v>
+        <v>0.06412423060838769</v>
       </c>
       <c r="C3">
-        <v>0.03748381790095379</v>
+        <v>0.07629804836102272</v>
       </c>
       <c r="D3">
-        <v>0.01180887355572902</v>
+        <v>-0.01359145963397609</v>
       </c>
       <c r="E3">
-        <v>-0.04594645025904032</v>
+        <v>-0.07824124219966515</v>
       </c>
       <c r="F3">
-        <v>0.2480033912039052</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.06959161914677929</v>
+      </c>
+      <c r="G3">
+        <v>0.0655794846696454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03149379995379651</v>
+        <v>0.05744555494519516</v>
       </c>
       <c r="C4">
-        <v>0.02539110678135638</v>
+        <v>0.06052190357565632</v>
       </c>
       <c r="D4">
-        <v>-0.01475799120348926</v>
+        <v>-0.0218414542803975</v>
       </c>
       <c r="E4">
-        <v>0.03829095504101517</v>
+        <v>0.001605416549500552</v>
       </c>
       <c r="F4">
-        <v>0.03645023654655798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01930136221297186</v>
+      </c>
+      <c r="G4">
+        <v>0.03778075611470934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +812,220 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04344456762736305</v>
+        <v>0.03311748556850323</v>
       </c>
       <c r="C6">
-        <v>0.04244649567923908</v>
+        <v>0.0563817184900124</v>
       </c>
       <c r="D6">
-        <v>-0.0004886445673426475</v>
+        <v>-0.01606377148980386</v>
       </c>
       <c r="E6">
-        <v>0.05448936884722649</v>
+        <v>-0.003103037699167185</v>
       </c>
       <c r="F6">
-        <v>0.03608000264274019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.0146735633858193</v>
+      </c>
+      <c r="G6">
+        <v>0.02047545175965846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01940664346624985</v>
+        <v>0.01830138309286902</v>
       </c>
       <c r="C7">
-        <v>0.03580127492966876</v>
+        <v>0.03800039033341693</v>
       </c>
       <c r="D7">
-        <v>-0.06270968979006705</v>
+        <v>-0.01263879893438751</v>
       </c>
       <c r="E7">
-        <v>-0.002921161778201883</v>
+        <v>0.01637506012696978</v>
       </c>
       <c r="F7">
-        <v>0.009175678271575824</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01086240947737101</v>
+      </c>
+      <c r="G7">
+        <v>0.07350459155548969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.01532985731151552</v>
+        <v>-0.005319375898299047</v>
       </c>
       <c r="C8">
-        <v>-0.001355043468675834</v>
+        <v>0.01320774980797386</v>
       </c>
       <c r="D8">
-        <v>-0.01027857584959425</v>
+        <v>-0.003809826456121354</v>
       </c>
       <c r="E8">
-        <v>0.01719950774465452</v>
+        <v>-0.01237758589404226</v>
       </c>
       <c r="F8">
-        <v>0.021542673649967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02360875242572293</v>
+      </c>
+      <c r="G8">
+        <v>0.02428401401190121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02356477698746903</v>
+        <v>0.02880995501224926</v>
       </c>
       <c r="C9">
-        <v>0.02548208994643941</v>
+        <v>0.04089412795961898</v>
       </c>
       <c r="D9">
-        <v>-0.005956180605267195</v>
+        <v>-0.01523864774588273</v>
       </c>
       <c r="E9">
-        <v>0.02518610113169222</v>
+        <v>-0.0008701504004970587</v>
       </c>
       <c r="F9">
-        <v>0.05942297169377021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0201922229271006</v>
+      </c>
+      <c r="G9">
+        <v>0.02978435580670107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08754514832050163</v>
+        <v>0.08002424402661694</v>
       </c>
       <c r="C10">
-        <v>0.01919844302603403</v>
+        <v>-0.1870473920929161</v>
       </c>
       <c r="D10">
-        <v>0.03122818716611627</v>
+        <v>0.01945196611775302</v>
       </c>
       <c r="E10">
-        <v>-0.1596975602568202</v>
+        <v>-0.01673560201614626</v>
       </c>
       <c r="F10">
-        <v>0.02687058176661249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01182040333003734</v>
+      </c>
+      <c r="G10">
+        <v>0.03541913531013214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01534483490401865</v>
+        <v>0.03665940463448817</v>
       </c>
       <c r="C11">
-        <v>0.02527786253392922</v>
+        <v>0.05216579709599456</v>
       </c>
       <c r="D11">
-        <v>0.008484565553756745</v>
+        <v>-0.0009645826762303302</v>
       </c>
       <c r="E11">
-        <v>0.043294605159935</v>
+        <v>0.005825570004461295</v>
       </c>
       <c r="F11">
-        <v>0.01846386811246128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02736200313039348</v>
+      </c>
+      <c r="G11">
+        <v>0.009766844445185255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.02369338051096463</v>
+        <v>0.03530646462744627</v>
       </c>
       <c r="C12">
-        <v>0.02585692393005288</v>
+        <v>0.04380947043619011</v>
       </c>
       <c r="D12">
-        <v>0.0002847019449198441</v>
+        <v>-0.005259192112576587</v>
       </c>
       <c r="E12">
-        <v>0.0420624487633252</v>
+        <v>0.01096073043881046</v>
       </c>
       <c r="F12">
-        <v>-0.007272665495744789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.008087818826857475</v>
+      </c>
+      <c r="G12">
+        <v>0.01537998819907083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0266813961439732</v>
+        <v>0.01236925445655602</v>
       </c>
       <c r="C13">
-        <v>-0.002221395434658658</v>
+        <v>0.03226023224464783</v>
       </c>
       <c r="D13">
-        <v>-0.002880088288120041</v>
+        <v>-0.02449776194888946</v>
       </c>
       <c r="E13">
-        <v>0.02659729728089182</v>
+        <v>-0.01863718553549725</v>
       </c>
       <c r="F13">
-        <v>0.0470369409419955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03071726916565514</v>
+      </c>
+      <c r="G13">
+        <v>0.02492955491410298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009845138781884002</v>
+        <v>0.007386579088603828</v>
       </c>
       <c r="C14">
-        <v>0.01538848036608068</v>
+        <v>0.02473235448008641</v>
       </c>
       <c r="D14">
-        <v>-0.01111614593562615</v>
+        <v>-0.008332189388500619</v>
       </c>
       <c r="E14">
-        <v>0.006584535809966275</v>
+        <v>0.008728979734643648</v>
       </c>
       <c r="F14">
-        <v>0.01133625187764298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.002227049682584467</v>
+      </c>
+      <c r="G14">
+        <v>0.03276181233440855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1042,36 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.01348311245975795</v>
+        <v>0.03212783117004545</v>
       </c>
       <c r="C16">
-        <v>0.02645209387328655</v>
+        <v>0.04197375574839484</v>
       </c>
       <c r="D16">
-        <v>0.002648174949065776</v>
+        <v>-0.0006801130491026274</v>
       </c>
       <c r="E16">
-        <v>0.03947283160031786</v>
+        <v>0.004512468486232637</v>
       </c>
       <c r="F16">
-        <v>0.02028439318647105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01477165394517989</v>
+      </c>
+      <c r="G16">
+        <v>0.01451405484765186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1088,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1111,82 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01509123382314321</v>
+        <v>0.02826062747709508</v>
       </c>
       <c r="C19">
-        <v>0.02442029434366257</v>
+        <v>0.0545565020525714</v>
       </c>
       <c r="D19">
-        <v>0.003059381738165854</v>
+        <v>-0.01494896771093392</v>
       </c>
       <c r="E19">
-        <v>0.03450110980152087</v>
+        <v>-0.03308648076158582</v>
       </c>
       <c r="F19">
-        <v>0.05659598548972272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04100947317447972</v>
+      </c>
+      <c r="G19">
+        <v>0.0325909879478281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.005934699389532143</v>
+        <v>0.01100420171638738</v>
       </c>
       <c r="C20">
-        <v>0.002588730199790663</v>
+        <v>0.03465800994932512</v>
       </c>
       <c r="D20">
-        <v>-0.002720097822237403</v>
+        <v>-0.01298230507592051</v>
       </c>
       <c r="E20">
-        <v>-0.0003518559248715807</v>
+        <v>-0.01774125545843825</v>
       </c>
       <c r="F20">
-        <v>0.02982243497093354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01022882506619844</v>
+      </c>
+      <c r="G20">
+        <v>0.02529875281758287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02622774683861928</v>
+        <v>0.01212258546074287</v>
       </c>
       <c r="C21">
-        <v>0.03679932010053186</v>
+        <v>0.03357054645594764</v>
       </c>
       <c r="D21">
-        <v>-0.01426739103270594</v>
+        <v>-0.01579663920583292</v>
       </c>
       <c r="E21">
-        <v>0.01626352631719291</v>
+        <v>-0.02373257726374856</v>
       </c>
       <c r="F21">
-        <v>0.0259642480106641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02151365305270997</v>
+      </c>
+      <c r="G21">
+        <v>0.04815976822363061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1203,13 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1226,82 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.01339919451322093</v>
+        <v>0.02662063820173324</v>
       </c>
       <c r="C24">
-        <v>0.02276076116280175</v>
+        <v>0.04536856311054291</v>
       </c>
       <c r="D24">
-        <v>0.003796485620836574</v>
+        <v>-0.005912421415006018</v>
       </c>
       <c r="E24">
-        <v>0.03406107420822441</v>
+        <v>0.009818054851272327</v>
       </c>
       <c r="F24">
-        <v>0.01746304054450412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02342288707910091</v>
+      </c>
+      <c r="G24">
+        <v>0.01295053172852479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.02911415920391511</v>
+        <v>0.04527353717355946</v>
       </c>
       <c r="C25">
-        <v>0.02534306213572396</v>
+        <v>0.05072713474810569</v>
       </c>
       <c r="D25">
-        <v>0.005678397841438875</v>
+        <v>-0.009803075060863899</v>
       </c>
       <c r="E25">
-        <v>0.03737362508097952</v>
+        <v>0.01570420946835442</v>
       </c>
       <c r="F25">
-        <v>0.03219890101845396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01967506822064376</v>
+      </c>
+      <c r="G25">
+        <v>0.01887734686461647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01254668044982817</v>
+        <v>0.00328866738814763</v>
       </c>
       <c r="C26">
-        <v>-0.007097817972199853</v>
+        <v>0.009380350083068489</v>
       </c>
       <c r="D26">
-        <v>-0.01314320744936408</v>
+        <v>-0.02406989200048552</v>
       </c>
       <c r="E26">
-        <v>0.003439474448022996</v>
+        <v>-0.004710046530165888</v>
       </c>
       <c r="F26">
-        <v>0.03196809023078135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008258218268698801</v>
+      </c>
+      <c r="G26">
+        <v>0.0232677610557812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1318,174 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1385997429827197</v>
+        <v>0.1031256823157609</v>
       </c>
       <c r="C28">
-        <v>0.01662397472058314</v>
+        <v>-0.2281370218499628</v>
       </c>
       <c r="D28">
-        <v>0.03926781818263204</v>
+        <v>0.01094762937269231</v>
       </c>
       <c r="E28">
-        <v>-0.2290392657913917</v>
+        <v>-0.00622128280825409</v>
       </c>
       <c r="F28">
-        <v>0.00603559196101554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.006762380367526925</v>
+      </c>
+      <c r="G28">
+        <v>0.05101594278716065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01422995879917897</v>
+        <v>0.0124837527439741</v>
       </c>
       <c r="C29">
-        <v>0.01021785003191497</v>
+        <v>0.01802561416317631</v>
       </c>
       <c r="D29">
-        <v>-0.009230625207273323</v>
+        <v>-0.006984811004978491</v>
       </c>
       <c r="E29">
-        <v>0.006516972983534744</v>
+        <v>0.006253445139624067</v>
       </c>
       <c r="F29">
-        <v>0.01407306766564826</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.003538189423632067</v>
+      </c>
+      <c r="G29">
+        <v>0.02700273107504332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03548436020416742</v>
+        <v>0.03963665106779154</v>
       </c>
       <c r="C30">
-        <v>0.0174158370085691</v>
+        <v>0.07137440390453134</v>
       </c>
       <c r="D30">
-        <v>0.05272485030792647</v>
+        <v>-0.02684661617796347</v>
       </c>
       <c r="E30">
-        <v>0.0734492266605543</v>
+        <v>-0.01682284506947601</v>
       </c>
       <c r="F30">
-        <v>0.06571267179456908</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04455526429224602</v>
+      </c>
+      <c r="G30">
+        <v>-0.01062760574095877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02599383176806027</v>
+        <v>0.04496230699962263</v>
       </c>
       <c r="C31">
-        <v>0.0484011036926244</v>
+        <v>0.02771120515708261</v>
       </c>
       <c r="D31">
-        <v>0.001608110230966854</v>
+        <v>-0.002478953752737361</v>
       </c>
       <c r="E31">
-        <v>0.01477336080828733</v>
+        <v>0.01707229070062463</v>
       </c>
       <c r="F31">
-        <v>-0.001485350582543739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02834502366456706</v>
+      </c>
+      <c r="G31">
+        <v>0.02325100635755369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.01284419359699746</v>
+        <v>0.00562158647301824</v>
       </c>
       <c r="C32">
-        <v>0.0263055107428267</v>
+        <v>0.03522807519018373</v>
       </c>
       <c r="D32">
-        <v>-0.01798654063847163</v>
+        <v>0.004736082336552238</v>
       </c>
       <c r="E32">
-        <v>0.01597955236611828</v>
+        <v>-0.01578780924854492</v>
       </c>
       <c r="F32">
-        <v>0.03691199173641888</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07547096547428296</v>
+      </c>
+      <c r="G32">
+        <v>0.05383957007607428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02567337867217196</v>
+        <v>0.03019995795272319</v>
       </c>
       <c r="C33">
-        <v>0.02020373393220029</v>
+        <v>0.05059262894902334</v>
       </c>
       <c r="D33">
-        <v>0.02344752210313004</v>
+        <v>-0.01374984069141188</v>
       </c>
       <c r="E33">
-        <v>0.03623891705124552</v>
+        <v>-0.0150987205914688</v>
       </c>
       <c r="F33">
-        <v>0.04111339106153745</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0253961784396646</v>
+      </c>
+      <c r="G33">
+        <v>0.01673751161508278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01160204819124942</v>
+        <v>0.04725973606004535</v>
       </c>
       <c r="C34">
-        <v>0.03618749370632257</v>
+        <v>0.0517427770758179</v>
       </c>
       <c r="D34">
-        <v>-0.00191607670746555</v>
+        <v>0.006307106712489695</v>
       </c>
       <c r="E34">
-        <v>0.03722682639476346</v>
+        <v>0.01489723088018543</v>
       </c>
       <c r="F34">
-        <v>0.01899240945543031</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02431505026287187</v>
+      </c>
+      <c r="G34">
+        <v>0.02350409872000569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1502,36 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01815312953464295</v>
+        <v>0.009718692150933628</v>
       </c>
       <c r="C36">
-        <v>0.006163725457871266</v>
+        <v>0.004648027679956609</v>
       </c>
       <c r="D36">
-        <v>-0.003939019277157848</v>
+        <v>-0.01109813518816704</v>
       </c>
       <c r="E36">
-        <v>0.002570854316527544</v>
+        <v>0.003074484363107017</v>
       </c>
       <c r="F36">
-        <v>0.01433182863809194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.001221121117092751</v>
+      </c>
+      <c r="G36">
+        <v>0.01572897873446628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1548,174 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003855330393335132</v>
+        <v>0.03222700879358732</v>
       </c>
       <c r="C38">
-        <v>0.03575595342267004</v>
+        <v>0.02225070567782376</v>
       </c>
       <c r="D38">
-        <v>0.01332363094613838</v>
+        <v>0.008436503075257239</v>
       </c>
       <c r="E38">
-        <v>0.009623255406548811</v>
+        <v>0.003149451290183966</v>
       </c>
       <c r="F38">
-        <v>0.044472536683374</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.007848931635311245</v>
+      </c>
+      <c r="G38">
+        <v>0.02287317006406373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.008301400204135589</v>
+        <v>0.03261834393771538</v>
       </c>
       <c r="C39">
-        <v>0.02422480204893385</v>
+        <v>0.08228973093591269</v>
       </c>
       <c r="D39">
-        <v>-0.005795502151826995</v>
+        <v>-0.01145006278164801</v>
       </c>
       <c r="E39">
-        <v>0.06647255918116159</v>
+        <v>-0.006767934044860572</v>
       </c>
       <c r="F39">
-        <v>0.05234799736475831</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04133665010608543</v>
+      </c>
+      <c r="G39">
+        <v>0.01537667452526194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.02010886245917229</v>
+        <v>0.01987809386778572</v>
       </c>
       <c r="C40">
-        <v>0.02031195558683822</v>
+        <v>0.03096500607053892</v>
       </c>
       <c r="D40">
-        <v>0.005309757543744328</v>
+        <v>-0.01280871165420006</v>
       </c>
       <c r="E40">
-        <v>0.04218798574817482</v>
+        <v>-0.01208743972679742</v>
       </c>
       <c r="F40">
-        <v>0.03997964063270811</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02534534783861692</v>
+      </c>
+      <c r="G40">
+        <v>0.01657380091069833</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01152156129553719</v>
+        <v>0.0106328380413454</v>
       </c>
       <c r="C41">
-        <v>0.007117501967637651</v>
+        <v>-0.002662458562468037</v>
       </c>
       <c r="D41">
-        <v>0.002577645844261562</v>
+        <v>-0.003208211249351657</v>
       </c>
       <c r="E41">
-        <v>-0.01146491878113627</v>
+        <v>0.008685549093537654</v>
       </c>
       <c r="F41">
-        <v>0.003576392056598229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.001042520483961563</v>
+      </c>
+      <c r="G41">
+        <v>0.01012927436033902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.1314196984261339</v>
+        <v>0.04009243274495742</v>
       </c>
       <c r="C42">
-        <v>0.03036897613132597</v>
+        <v>0.05387973836239879</v>
       </c>
       <c r="D42">
-        <v>0.09953043302769639</v>
+        <v>-0.1028251245032943</v>
       </c>
       <c r="E42">
-        <v>0.1562235011711569</v>
+        <v>-0.07198776562619569</v>
       </c>
       <c r="F42">
-        <v>0.2022486494571535</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1218341966642806</v>
+      </c>
+      <c r="G42">
+        <v>-0.2187567699134596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01708627551932223</v>
+        <v>0.0266805267132173</v>
       </c>
       <c r="C43">
-        <v>0.006310637887309159</v>
+        <v>0.00578162968095871</v>
       </c>
       <c r="D43">
-        <v>0.004052345658327894</v>
+        <v>-0.003220668843622939</v>
       </c>
       <c r="E43">
-        <v>-0.005737773783712354</v>
+        <v>0.005002652440094645</v>
       </c>
       <c r="F43">
-        <v>0.007263727561493498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.00312417712102665</v>
+      </c>
+      <c r="G43">
+        <v>0.01288190308123138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0002233003636569962</v>
+        <v>0.01721539919904985</v>
       </c>
       <c r="C44">
-        <v>0.01580854570302454</v>
+        <v>0.04853883960006366</v>
       </c>
       <c r="D44">
-        <v>-0.007528243318428923</v>
+        <v>-0.006546023465404794</v>
       </c>
       <c r="E44">
-        <v>0.01402369947307222</v>
+        <v>-0.01644422299198669</v>
       </c>
       <c r="F44">
-        <v>0.07452413536189254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02491691445663996</v>
+      </c>
+      <c r="G44">
+        <v>0.03035062134339573</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1732,82 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007243519983476516</v>
+        <v>0.0008890763680594066</v>
       </c>
       <c r="C46">
-        <v>0.00872164394460569</v>
+        <v>0.01559295667903076</v>
       </c>
       <c r="D46">
-        <v>-0.003401610990544389</v>
+        <v>-0.01157728249122039</v>
       </c>
       <c r="E46">
-        <v>0.02401515996993283</v>
+        <v>0.007085654544634202</v>
       </c>
       <c r="F46">
-        <v>0.03621667291160312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.006870441241242682</v>
+      </c>
+      <c r="G46">
+        <v>0.02016166510147252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.04542019587492753</v>
+        <v>0.07549843163273595</v>
       </c>
       <c r="C47">
-        <v>0.05884243476140963</v>
+        <v>0.05878557246904883</v>
       </c>
       <c r="D47">
-        <v>0.01773648393956636</v>
+        <v>0.005507429666945851</v>
       </c>
       <c r="E47">
-        <v>0.0291477277384742</v>
+        <v>0.01948105179343484</v>
       </c>
       <c r="F47">
-        <v>-0.03408556297846488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.05862829874477998</v>
+      </c>
+      <c r="G47">
+        <v>0.01488786688636734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02346301273333781</v>
+        <v>0.01536816221057172</v>
       </c>
       <c r="C48">
-        <v>0.01582848269507094</v>
+        <v>0.01014735306507429</v>
       </c>
       <c r="D48">
-        <v>-0.0004100792109735202</v>
+        <v>-0.0009436450323164319</v>
       </c>
       <c r="E48">
-        <v>0.006831010920043546</v>
+        <v>0.007589353511584909</v>
       </c>
       <c r="F48">
-        <v>0.01801601771928411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01180955687354389</v>
+      </c>
+      <c r="G48">
+        <v>0.01778012339536782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1824,59 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04228888268778646</v>
+        <v>0.07847815125332316</v>
       </c>
       <c r="C50">
-        <v>0.07537170787342171</v>
+        <v>0.06038386164678249</v>
       </c>
       <c r="D50">
-        <v>-0.008994389185246443</v>
+        <v>0.004203087429874741</v>
       </c>
       <c r="E50">
-        <v>0.04210035829936087</v>
+        <v>0.02023660533014948</v>
       </c>
       <c r="F50">
-        <v>-0.01358433756855578</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05640529019183936</v>
+      </c>
+      <c r="G50">
+        <v>0.03874495421944037</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01302807080436721</v>
+        <v>0.01707113836577807</v>
       </c>
       <c r="C51">
-        <v>0.008552055401418622</v>
+        <v>0.02797312141198524</v>
       </c>
       <c r="D51">
-        <v>-0.005451773707759643</v>
+        <v>-0.00874898875163483</v>
       </c>
       <c r="E51">
-        <v>-0.01841153507562716</v>
+        <v>-0.008096836312924783</v>
       </c>
       <c r="F51">
-        <v>0.059006290960698</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03634057439729427</v>
+      </c>
+      <c r="G51">
+        <v>0.03812546473136031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +1893,220 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.06163968046231521</v>
+        <v>0.1002098975131114</v>
       </c>
       <c r="C53">
-        <v>0.07708112967218286</v>
+        <v>0.07183250561652195</v>
       </c>
       <c r="D53">
-        <v>0.003909436104683578</v>
+        <v>0.006501450780075134</v>
       </c>
       <c r="E53">
-        <v>0.05932529917827958</v>
+        <v>0.04168869173646239</v>
       </c>
       <c r="F53">
-        <v>-0.06009890286580463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06487555869377874</v>
+      </c>
+      <c r="G53">
+        <v>0.01772427512506105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01758791851471145</v>
+        <v>0.02812637522639825</v>
       </c>
       <c r="C54">
-        <v>0.02451359805362826</v>
+        <v>0.003366801172877545</v>
       </c>
       <c r="D54">
-        <v>-0.001354756141868473</v>
+        <v>0.004451417067823249</v>
       </c>
       <c r="E54">
-        <v>0.0006757274581924609</v>
+        <v>0.0003045681252572602</v>
       </c>
       <c r="F54">
-        <v>0.0001781073351408877</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.002380562113522112</v>
+      </c>
+      <c r="G54">
+        <v>0.02636206969415199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.04321727684563714</v>
+        <v>0.07602540255642354</v>
       </c>
       <c r="C55">
-        <v>0.06373723274495643</v>
+        <v>0.0658894775871527</v>
       </c>
       <c r="D55">
-        <v>0.00951358512417351</v>
+        <v>0.005378438637795108</v>
       </c>
       <c r="E55">
-        <v>0.06768316008877782</v>
+        <v>0.03046063123659004</v>
       </c>
       <c r="F55">
-        <v>-0.03937203657249656</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05948616882273326</v>
+      </c>
+      <c r="G55">
+        <v>0.006022291005190138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.09653392438198903</v>
+        <v>0.1517396506317039</v>
       </c>
       <c r="C56">
-        <v>0.09780715225062088</v>
+        <v>0.09296007536746473</v>
       </c>
       <c r="D56">
-        <v>0.01616957256412473</v>
+        <v>0.01544583683279461</v>
       </c>
       <c r="E56">
-        <v>0.08445457454071216</v>
+        <v>0.04500030222028632</v>
       </c>
       <c r="F56">
-        <v>-0.08794008442322285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1017326879914036</v>
+      </c>
+      <c r="G56">
+        <v>-0.003928058629592036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.04503729758690533</v>
+        <v>0.01383842506048761</v>
       </c>
       <c r="C57">
-        <v>0.002480750132237829</v>
+        <v>0.01140142351440503</v>
       </c>
       <c r="D57">
-        <v>-0.002621288356448937</v>
+        <v>-0.02364725267264849</v>
       </c>
       <c r="E57">
-        <v>0.03636637390780769</v>
+        <v>-0.02944889863228824</v>
       </c>
       <c r="F57">
-        <v>0.04121303567925253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01545552271322183</v>
+      </c>
+      <c r="G57">
+        <v>0.02227537687879445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1140445983003094</v>
+        <v>0.06830076149398237</v>
       </c>
       <c r="C58">
-        <v>0.06339859177359523</v>
+        <v>0.06993303848452151</v>
       </c>
       <c r="D58">
-        <v>0.1419899525191559</v>
+        <v>-0.0175989684334923</v>
       </c>
       <c r="E58">
-        <v>0.1223602981858177</v>
+        <v>-0.9416769600692388</v>
       </c>
       <c r="F58">
-        <v>0.5085404792572041</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2460284148887405</v>
+      </c>
+      <c r="G58">
+        <v>0.07114055935299161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.144765498440034</v>
+        <v>0.1432912561035893</v>
       </c>
       <c r="C59">
-        <v>0.007385608904975375</v>
+        <v>-0.2192137970377467</v>
       </c>
       <c r="D59">
-        <v>0.05861263241183412</v>
+        <v>0.01825106549423747</v>
       </c>
       <c r="E59">
-        <v>-0.197025601370356</v>
+        <v>-0.01580489889591211</v>
       </c>
       <c r="F59">
-        <v>0.04694340543984869</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.0146661356032575</v>
+      </c>
+      <c r="G59">
+        <v>0.017438245370418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1685071629919704</v>
+        <v>0.2953797259833234</v>
       </c>
       <c r="C60">
-        <v>0.09700171629834692</v>
+        <v>0.07475578190529607</v>
       </c>
       <c r="D60">
-        <v>0.06842698667433463</v>
+        <v>-0.006334083137088812</v>
       </c>
       <c r="E60">
-        <v>0.04510500666659222</v>
+        <v>-0.03700931249556414</v>
       </c>
       <c r="F60">
-        <v>0.2107462592158435</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3950606261340825</v>
+      </c>
+      <c r="G60">
+        <v>-0.04623046920045439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.02019979465707287</v>
+        <v>0.03282304771756282</v>
       </c>
       <c r="C61">
-        <v>0.02979116449819664</v>
+        <v>0.0628338286228336</v>
       </c>
       <c r="D61">
-        <v>0.003103466979177156</v>
+        <v>-0.00469484349762715</v>
       </c>
       <c r="E61">
-        <v>0.05469150086323587</v>
+        <v>-0.001398802482769347</v>
       </c>
       <c r="F61">
-        <v>0.03152092683071843</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02745115081295793</v>
+      </c>
+      <c r="G61">
+        <v>0.01641574123371287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2123,174 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01167611902825182</v>
+        <v>0.01342588710135157</v>
       </c>
       <c r="C63">
-        <v>0.01448078727792706</v>
+        <v>0.02725360336950083</v>
       </c>
       <c r="D63">
-        <v>-0.003825047879282389</v>
+        <v>-0.00757755683832234</v>
       </c>
       <c r="E63">
-        <v>0.02096583366046886</v>
+        <v>0.01871178767508313</v>
       </c>
       <c r="F63">
-        <v>0.0009919931403181697</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.004420087060752717</v>
+      </c>
+      <c r="G63">
+        <v>0.0216544421918633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02972234820588149</v>
+        <v>0.04665731711316557</v>
       </c>
       <c r="C64">
-        <v>0.04008424089751467</v>
+        <v>0.03429245456397496</v>
       </c>
       <c r="D64">
-        <v>0.007480994738731882</v>
+        <v>-0.00428333765231257</v>
       </c>
       <c r="E64">
-        <v>0.03867991414986425</v>
+        <v>0.01489791454447952</v>
       </c>
       <c r="F64">
-        <v>0.01841486916988832</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01515910236512101</v>
+      </c>
+      <c r="G64">
+        <v>0.01367509247560757</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.04936106660856023</v>
+        <v>0.08032837725228188</v>
       </c>
       <c r="C65">
-        <v>0.0478987563413114</v>
+        <v>0.06547646592239008</v>
       </c>
       <c r="D65">
-        <v>0.001625503948872239</v>
+        <v>-0.01474349416863194</v>
       </c>
       <c r="E65">
-        <v>0.05788930163359202</v>
+        <v>-0.0001422478101659534</v>
       </c>
       <c r="F65">
-        <v>0.03338411640042245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03852320876991279</v>
+      </c>
+      <c r="G65">
+        <v>0.008978035188088393</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.02098863483410727</v>
+        <v>0.05463126722937727</v>
       </c>
       <c r="C66">
-        <v>0.03817741117316747</v>
+        <v>0.1157732466624339</v>
       </c>
       <c r="D66">
-        <v>0.01740508915374866</v>
+        <v>-0.01069110705460525</v>
       </c>
       <c r="E66">
-        <v>0.08728153199331252</v>
+        <v>-0.009349045825740167</v>
       </c>
       <c r="F66">
-        <v>0.03505632228746804</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.0486035000720216</v>
+      </c>
+      <c r="G66">
+        <v>0.004748017064895109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.02328439738260268</v>
+        <v>0.05754065657277592</v>
       </c>
       <c r="C67">
-        <v>0.0394970084194283</v>
+        <v>0.02409065768036093</v>
       </c>
       <c r="D67">
-        <v>0.01583091377777212</v>
+        <v>0.007286723947597596</v>
       </c>
       <c r="E67">
-        <v>0.01154782005181031</v>
+        <v>0.009531617375314739</v>
       </c>
       <c r="F67">
-        <v>0.0268076355829684</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.007396885399670057</v>
+      </c>
+      <c r="G67">
+        <v>0.02290573570526481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.14230525556256</v>
+        <v>0.114229183957378</v>
       </c>
       <c r="C68">
-        <v>-0.01047605800672731</v>
+        <v>-0.2715888172487162</v>
       </c>
       <c r="D68">
-        <v>0.0457911647444289</v>
+        <v>-0.0001869205060321916</v>
       </c>
       <c r="E68">
-        <v>-0.2075712109969746</v>
+        <v>-0.01259201860547312</v>
       </c>
       <c r="F68">
-        <v>0.009192846146014287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01634662094166184</v>
+      </c>
+      <c r="G68">
+        <v>0.01779610361838647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03151723432246866</v>
+        <v>0.07768590407104357</v>
       </c>
       <c r="C69">
-        <v>0.05402486380238131</v>
+        <v>0.05710816044547256</v>
       </c>
       <c r="D69">
-        <v>0.0133610136891174</v>
+        <v>0.009905954807255944</v>
       </c>
       <c r="E69">
-        <v>0.03436539708792888</v>
+        <v>0.03616013111946995</v>
       </c>
       <c r="F69">
-        <v>-0.02334888976370394</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03736453714498596</v>
+      </c>
+      <c r="G69">
+        <v>0.01193388622881341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2307,197 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1234086404627562</v>
+        <v>0.1152951450304832</v>
       </c>
       <c r="C71">
-        <v>0.004867641391094782</v>
+        <v>-0.2290943787030638</v>
       </c>
       <c r="D71">
-        <v>0.03528147798600389</v>
+        <v>0.008572560891708094</v>
       </c>
       <c r="E71">
-        <v>-0.202087428809337</v>
+        <v>-0.02043782040312352</v>
       </c>
       <c r="F71">
-        <v>0.02191630776528299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02380581224025351</v>
+      </c>
+      <c r="G71">
+        <v>0.03224406278063749</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.06300210826983167</v>
+        <v>0.08377663815621664</v>
       </c>
       <c r="C72">
-        <v>0.1327021979962896</v>
+        <v>0.07911622986835827</v>
       </c>
       <c r="D72">
-        <v>0.04904269963765013</v>
+        <v>0.009288980858911618</v>
       </c>
       <c r="E72">
-        <v>0.1205285838236348</v>
+        <v>0.0176699646410302</v>
       </c>
       <c r="F72">
-        <v>0.1467549948298784</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03851552904871706</v>
+      </c>
+      <c r="G72">
+        <v>-0.006770851302222056</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1997861052887194</v>
+        <v>0.4029660669528125</v>
       </c>
       <c r="C73">
-        <v>0.1185940094381963</v>
+        <v>0.09058198930174947</v>
       </c>
       <c r="D73">
-        <v>0.1334258434608205</v>
+        <v>-0.01028712667646427</v>
       </c>
       <c r="E73">
-        <v>0.08449814622939406</v>
+        <v>-0.0895768014152785</v>
       </c>
       <c r="F73">
-        <v>0.2882420104501291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5275608140979557</v>
+      </c>
+      <c r="G73">
+        <v>-0.09753115676042351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08133814614519563</v>
+        <v>0.1202718252880185</v>
       </c>
       <c r="C74">
-        <v>0.1006917500702943</v>
+        <v>0.1115342331738757</v>
       </c>
       <c r="D74">
-        <v>0.02736971952619025</v>
+        <v>0.01121302444915622</v>
       </c>
       <c r="E74">
-        <v>0.08679409789530776</v>
+        <v>0.04155211892604285</v>
       </c>
       <c r="F74">
-        <v>-0.07922946015186379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07086716667127901</v>
+      </c>
+      <c r="G74">
+        <v>0.009929103151312834</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.177816458811956</v>
+        <v>0.2689753444355413</v>
       </c>
       <c r="C75">
-        <v>0.1695969342749542</v>
+        <v>0.1331930039357994</v>
       </c>
       <c r="D75">
-        <v>0.05131841914717992</v>
+        <v>0.03273858554581696</v>
       </c>
       <c r="E75">
-        <v>0.135835365329366</v>
+        <v>0.06793917449162284</v>
       </c>
       <c r="F75">
-        <v>-0.1579269781549687</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2212888083611742</v>
+      </c>
+      <c r="G75">
+        <v>-0.03647995622484431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1490950359484704</v>
+        <v>0.1491938666063872</v>
       </c>
       <c r="C76">
-        <v>0.1913742965186811</v>
+        <v>0.1140908619652578</v>
       </c>
       <c r="D76">
-        <v>0.03905016440103362</v>
+        <v>0.0235605391183378</v>
       </c>
       <c r="E76">
-        <v>0.1375591744739914</v>
+        <v>0.07128585559466889</v>
       </c>
       <c r="F76">
-        <v>-0.22764554256386</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1397769825389064</v>
+      </c>
+      <c r="G76">
+        <v>-0.0007500082958757103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0316498617739833</v>
+        <v>0.05533231603147474</v>
       </c>
       <c r="C77">
-        <v>0.02480272099125819</v>
+        <v>0.06085901052710882</v>
       </c>
       <c r="D77">
-        <v>0.0009362168165275045</v>
+        <v>-0.01212912353022632</v>
       </c>
       <c r="E77">
-        <v>0.05596247910459606</v>
+        <v>-0.03075634125141072</v>
       </c>
       <c r="F77">
-        <v>0.06450775670412939</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.008935055685067176</v>
+      </c>
+      <c r="G77">
+        <v>0.03763808435365516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.02163652163240059</v>
+        <v>0.0440705119892479</v>
       </c>
       <c r="C78">
-        <v>0.02333840594989857</v>
+        <v>0.05152591182149754</v>
       </c>
       <c r="D78">
-        <v>-0.003491366302724047</v>
+        <v>-0.005005980694509752</v>
       </c>
       <c r="E78">
-        <v>0.04598091594108537</v>
+        <v>-0.01675725762847903</v>
       </c>
       <c r="F78">
-        <v>0.06319684704100992</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04617227045001331</v>
+      </c>
+      <c r="G78">
+        <v>0.0273820865344981</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2514,105 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.101798217008178</v>
+        <v>0.06615116099183574</v>
       </c>
       <c r="C80">
-        <v>0.4404550824638233</v>
+        <v>0.07644935228177711</v>
       </c>
       <c r="D80">
-        <v>-0.8467403810031832</v>
+        <v>-0.01318120254499568</v>
       </c>
       <c r="E80">
-        <v>-0.1689641736120473</v>
+        <v>0.07794814888341738</v>
       </c>
       <c r="F80">
-        <v>0.1175358184432369</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.007577920839123341</v>
+      </c>
+      <c r="G80">
+        <v>0.9252283119976242</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.126770017648983</v>
+        <v>0.1538489079501512</v>
       </c>
       <c r="C81">
-        <v>0.1432999034721696</v>
+        <v>0.08509038793205263</v>
       </c>
       <c r="D81">
-        <v>0.03158697925451308</v>
+        <v>0.01819933395299282</v>
       </c>
       <c r="E81">
-        <v>0.0991142599510305</v>
+        <v>0.04867408034611322</v>
       </c>
       <c r="F81">
-        <v>-0.1248982153752789</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.138662815011168</v>
+      </c>
+      <c r="G81">
+        <v>0.0042313491928083</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.04281082780344689</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03091434671442461</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002233010490761172</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01959415960616497</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.001751344149753664</v>
+      </c>
+      <c r="G82">
+        <v>-0.004105569397935117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02640925050978746</v>
+        <v>0.02959913900697256</v>
       </c>
       <c r="C83">
-        <v>0.02373508240300026</v>
+        <v>0.01828286561396869</v>
       </c>
       <c r="D83">
-        <v>0.01123743214213228</v>
+        <v>-0.00487830447728257</v>
       </c>
       <c r="E83">
-        <v>0.007939199937148091</v>
+        <v>-0.02478128540215567</v>
       </c>
       <c r="F83">
-        <v>0.04792537870765493</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02410353597937248</v>
+      </c>
+      <c r="G83">
+        <v>0.02662883519212329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2629,266 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1661717138029374</v>
+        <v>0.2499101532325343</v>
       </c>
       <c r="C85">
-        <v>0.1648886197640725</v>
+        <v>0.1398148559722673</v>
       </c>
       <c r="D85">
-        <v>0.05588044356948662</v>
+        <v>0.02157920929834239</v>
       </c>
       <c r="E85">
-        <v>0.1727965120041385</v>
+        <v>0.1096771938309713</v>
       </c>
       <c r="F85">
-        <v>-0.170083391108691</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2087914523731869</v>
+      </c>
+      <c r="G85">
+        <v>-0.06417429379646013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009559230486816167</v>
+        <v>0.009801250802458092</v>
       </c>
       <c r="C86">
-        <v>0.03943683247004353</v>
+        <v>0.02257238035817063</v>
       </c>
       <c r="D86">
-        <v>0.00844969216547979</v>
+        <v>-0.009677068605555729</v>
       </c>
       <c r="E86">
-        <v>0.01136737309288993</v>
+        <v>-0.01662127282384206</v>
       </c>
       <c r="F86">
-        <v>0.06226825482510774</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02466654069710422</v>
+      </c>
+      <c r="G86">
+        <v>0.05015408868415356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01553282468356263</v>
+        <v>0.01735533584411266</v>
       </c>
       <c r="C87">
-        <v>0.02636639701160068</v>
+        <v>0.02610556427713984</v>
       </c>
       <c r="D87">
-        <v>0.001535226326345149</v>
+        <v>-0.01109968144665733</v>
       </c>
       <c r="E87">
-        <v>0.02787754247121953</v>
+        <v>-0.0774123225252847</v>
       </c>
       <c r="F87">
-        <v>0.1088962329575271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06074341563487171</v>
+      </c>
+      <c r="G87">
+        <v>0.04026746381868646</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03989096760523172</v>
+        <v>0.08807798817687033</v>
       </c>
       <c r="C88">
-        <v>0.03468023019438758</v>
+        <v>0.04910575031158407</v>
       </c>
       <c r="D88">
-        <v>0.02133184181549064</v>
+        <v>-0.02052791215463933</v>
       </c>
       <c r="E88">
-        <v>0.001401522070874379</v>
+        <v>0.0139036684993498</v>
       </c>
       <c r="F88">
-        <v>0.004571484848555761</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.002452244990857664</v>
+      </c>
+      <c r="G88">
+        <v>0.01885800439999106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2557957985781301</v>
+        <v>0.2065605826785342</v>
       </c>
       <c r="C89">
-        <v>-0.01633573893918675</v>
+        <v>-0.3832093248460269</v>
       </c>
       <c r="D89">
-        <v>0.09494171515805562</v>
+        <v>0.01157807146597968</v>
       </c>
       <c r="E89">
-        <v>-0.355683181278701</v>
+        <v>0.01298949985899811</v>
       </c>
       <c r="F89">
-        <v>-0.005839761917074699</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02404749917070507</v>
+      </c>
+      <c r="G89">
+        <v>0.02816208951415216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1680108027943524</v>
+        <v>0.1684169959026242</v>
       </c>
       <c r="C90">
-        <v>-0.04085685644375261</v>
+        <v>-0.3433155407854414</v>
       </c>
       <c r="D90">
-        <v>0.07239650395225526</v>
+        <v>0.01334640041733936</v>
       </c>
       <c r="E90">
-        <v>-0.2866506979135822</v>
+        <v>-0.003960391411493046</v>
       </c>
       <c r="F90">
-        <v>-0.05442976406598914</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.03935104838699743</v>
+      </c>
+      <c r="G90">
+        <v>0.003383274711008558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1685633451578765</v>
+        <v>0.2213849470497572</v>
       </c>
       <c r="C91">
-        <v>0.1953796812845748</v>
+        <v>0.126634635592323</v>
       </c>
       <c r="D91">
-        <v>0.06606587231044257</v>
+        <v>0.02691818976397366</v>
       </c>
       <c r="E91">
-        <v>0.1633817814901034</v>
+        <v>0.09041033016406275</v>
       </c>
       <c r="F91">
-        <v>-0.2374216485925811</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1894982438657056</v>
+      </c>
+      <c r="G91">
+        <v>-0.02195500773013442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2495612365910896</v>
+        <v>0.2043424873792781</v>
       </c>
       <c r="C92">
-        <v>0.1047146345941741</v>
+        <v>-0.2803707053339414</v>
       </c>
       <c r="D92">
-        <v>0.125668327643327</v>
+        <v>0.05718268607469253</v>
       </c>
       <c r="E92">
-        <v>-0.2907106776176146</v>
+        <v>0.002754410910131335</v>
       </c>
       <c r="F92">
-        <v>-0.1504739635085208</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1353583502507334</v>
+      </c>
+      <c r="G92">
+        <v>0.05729114185936268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2174772597668589</v>
+        <v>0.1955526493010058</v>
       </c>
       <c r="C93">
-        <v>-0.01421251617945922</v>
+        <v>-0.3420532454092158</v>
       </c>
       <c r="D93">
-        <v>0.1139237368047996</v>
+        <v>0.02067479203924944</v>
       </c>
       <c r="E93">
-        <v>-0.3486170792274264</v>
+        <v>-0.0141700019805837</v>
       </c>
       <c r="F93">
-        <v>-0.01013927160956513</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.009995195894107098</v>
+      </c>
+      <c r="G93">
+        <v>-0.001405418742964521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2346447253941775</v>
+        <v>0.2913840438620244</v>
       </c>
       <c r="C94">
-        <v>0.1826758342775826</v>
+        <v>0.1380860713642295</v>
       </c>
       <c r="D94">
-        <v>0.09507831951037388</v>
+        <v>0.01559905699917263</v>
       </c>
       <c r="E94">
-        <v>0.1596891536625208</v>
+        <v>0.1015352185714842</v>
       </c>
       <c r="F94">
-        <v>-0.252436717793387</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3718803022772623</v>
+      </c>
+      <c r="G94">
+        <v>-0.1233511972881498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.04803310282631184</v>
+        <v>0.07312316198500253</v>
       </c>
       <c r="C95">
-        <v>0.06516612579155645</v>
+        <v>0.07634398004705145</v>
       </c>
       <c r="D95">
-        <v>0.1061700184380488</v>
+        <v>0.007035291447827614</v>
       </c>
       <c r="E95">
-        <v>0.03646780779167729</v>
+        <v>-0.08062294986052716</v>
       </c>
       <c r="F95">
-        <v>0.009914092194666803</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1393511529942126</v>
+      </c>
+      <c r="G95">
+        <v>-0.05793292451155478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +2905,13 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +2928,36 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1591535768616274</v>
+        <v>0.2141890955139819</v>
       </c>
       <c r="C98">
-        <v>0.1090917611825063</v>
+        <v>0.03698695995851627</v>
       </c>
       <c r="D98">
-        <v>0.09807852493477157</v>
+        <v>0.01996070215159374</v>
       </c>
       <c r="E98">
-        <v>0.01388187095277379</v>
+        <v>-0.075623141839262</v>
       </c>
       <c r="F98">
-        <v>0.2877549809222961</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2562764297383548</v>
+      </c>
+      <c r="G98">
+        <v>-0.02844621062910707</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +2974,13 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +2997,100 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02431490439277911</v>
+        <v>0.01400270753762302</v>
       </c>
       <c r="C101">
-        <v>0.01616459751735199</v>
+        <v>0.01913135223759874</v>
       </c>
       <c r="D101">
-        <v>0.001461221960252081</v>
+        <v>-0.008084054138692925</v>
       </c>
       <c r="E101">
-        <v>0.01711076561683397</v>
+        <v>-0.03218716267352523</v>
       </c>
       <c r="F101">
-        <v>0.108593495801848</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02325240354056885</v>
+      </c>
+      <c r="G101">
+        <v>0.03412547406949952</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1057187565532063</v>
+        <v>0.1292396931935743</v>
       </c>
       <c r="C102">
-        <v>0.08313160954962129</v>
+        <v>0.07396681534711008</v>
       </c>
       <c r="D102">
-        <v>0.02417324157257622</v>
+        <v>0.00110375874128584</v>
       </c>
       <c r="E102">
-        <v>0.07844117805696786</v>
+        <v>0.0459589216660897</v>
       </c>
       <c r="F102">
-        <v>-0.1049622350480726</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06144571059628102</v>
+      </c>
+      <c r="G102">
+        <v>-0.01767022967120529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.0216950739446015</v>
+        <v>0.006604491535698585</v>
       </c>
       <c r="C103">
-        <v>0.02994518640365396</v>
+        <v>0.005741768136778022</v>
       </c>
       <c r="D103">
-        <v>-0.006734479055305782</v>
+        <v>-0.0002134855288291155</v>
       </c>
       <c r="E103">
-        <v>0.02304266291342947</v>
+        <v>0.002588729141290477</v>
       </c>
       <c r="F103">
-        <v>-0.01401720208106136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01091415089361584</v>
+      </c>
+      <c r="G103">
+        <v>0.01331822483496777</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5704737151395681</v>
+        <v>0.04497978540009338</v>
       </c>
       <c r="C104">
-        <v>-0.6797810610111651</v>
+        <v>-0.04968213577637001</v>
       </c>
       <c r="D104">
-        <v>-0.3468885592463271</v>
+        <v>-0.9856033570755923</v>
       </c>
       <c r="E104">
-        <v>0.2661164913858776</v>
+        <v>0.04142081446382084</v>
       </c>
       <c r="F104">
-        <v>-0.02433978890735468</v>
+        <v>0.03703709234517413</v>
+      </c>
+      <c r="G104">
+        <v>-0.001103831634335757</v>
       </c>
     </row>
   </sheetData>
